--- a/metrica-IA-transcript-scripts/data/Dataframe para Métrica.xlsx
+++ b/metrica-IA-transcript-scripts/data/Dataframe para Métrica.xlsx
@@ -22,10 +22,10 @@
     <t>índice</t>
   </si>
   <si>
-    <t>curso esperado</t>
-  </si>
-  <si>
-    <t>curso retornado</t>
+    <t>artigo esperado</t>
+  </si>
+  <si>
+    <t>artigo retornado</t>
   </si>
   <si>
     <t>saida</t>
@@ -2162,7 +2162,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="79.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="97.5">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
